--- a/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
+++ b/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
@@ -1227,7 +1227,7 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5333333333333" defaultRowHeight="12.75" outlineLevelCol="0"/>
   <cols>
     <col width="22.5714285714286" customWidth="1" style="1" min="1" max="3"/>
     <col width="16" customWidth="1" style="1" min="4" max="4"/>

--- a/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
+++ b/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
@@ -1221,13 +1221,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5333333333333" defaultRowHeight="12.75" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5333333333333" defaultRowHeight="12.75"/>
   <cols>
     <col width="22.5714285714286" customWidth="1" style="1" min="1" max="3"/>
     <col width="16" customWidth="1" style="1" min="4" max="4"/>
@@ -1309,78 +1309,75 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21-КБ/19.03
-</t>
-        </is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1393,73 +1390,70 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21-КБ/19.03
-</t>
-        </is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>12</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">96500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1467,78 +1461,75 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Договор работ</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">21-КБ/19.03
-</t>
-        </is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>123</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">196500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1546,157 +1537,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
+          <t>219861000.0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Договор аренды</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">22-П/22.04
+          <t xml:space="preserve">21-КБ/19.03
 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -1704,78 +1623,78 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Договор работ</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">22-П/22.04
+          <t xml:space="preserve">21-КБ/19.03
 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -1783,7 +1702,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор работ</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1824,7 +1743,8 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1-\п</t>
+          <t xml:space="preserve">21-КБ/19.03
+</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1841,7 +1761,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">20500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -1866,72 +1786,73 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2-\п</t>
+          <t xml:space="preserve">22-П/22.04
+</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">420500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1939,77 +1860,78 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>3-\п</t>
+          <t xml:space="preserve">22-П/22.04
+</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">9920500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -2017,77 +1939,78 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор работ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4-\п</t>
+          <t xml:space="preserve">22-П/22.04
+</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">820500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -2100,73 +2023,72 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
+          <t>1-\п</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">20500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -2179,72 +2101,72 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>22-П</t>
+          <t>2-\п</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">6500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">420500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -2257,70 +2179,72 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>23</v>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>3-\п</t>
+        </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">9920500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -2333,70 +2257,72 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>233</v>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>4-\п</t>
+        </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">820500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -2443,8 +2369,11 @@
 </t>
         </is>
       </c>
-      <c r="H16" t="n">
-        <v>2333</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22-П/22.04
+</t>
+        </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2460,7 +2389,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">1216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -2480,7 +2409,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Договор аренды</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2519,8 +2448,10 @@
 </t>
         </is>
       </c>
-      <c r="H17" t="n">
-        <v>1</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>22-П</t>
+        </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2536,7 +2467,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">6500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -2556,7 +2487,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Договор аренды</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2596,7 +2527,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2612,7 +2543,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">96500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -2632,7 +2563,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Договор аренды</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2672,7 +2603,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>123</v>
+        <v>233</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2688,7 +2619,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">196500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -2707,6 +2638,310 @@
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
+        <is>
+          <t>Договор поставки</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генеральный директор
+</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">С.С. Макарова
+</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2333</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">1216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Краснодар
+</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 апреля 2024 г.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Договор аренды</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генеральный директор
+</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">С.С. Макарова
+</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Краснодар
+</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 апреля 2024 г.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Договор аренды</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генеральный директор
+</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">С.С. Макарова
+</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>12</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">96500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Краснодар
+</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 апреля 2024 г.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Договор аренды</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генеральный директор
+</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">С.С. Макарова
+</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>123</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">196500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Краснодар
+</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 апреля 2024 г.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>219861000.0</t>
         </is>

--- a/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
+++ b/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
@@ -1221,7 +1221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -1309,75 +1309,78 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Договор аренды</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21-КБ/19.03
+</t>
+        </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -1390,70 +1393,73 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>12</v>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21-КБ/19.03
+</t>
+        </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">96500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -1461,75 +1467,78 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Договор аренды</t>
+          <t>Договор работ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>123</v>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21-КБ/19.03
+</t>
+        </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">196500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -1537,85 +1546,157 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>219861000.0</t>
+          <t>Договор поставки</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генеральный директор
+</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">С.С. Макарова
+</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22-П/22.04
+</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Краснодар
+</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">22 апреля 2024 г.
+</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">21-КБ/19.03
+          <t xml:space="preserve">22-П/22.04
 </t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1623,78 +1704,78 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Договор аренды</t>
+          <t>Договор работ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t xml:space="preserve">21-КБ/19.03
+          <t xml:space="preserve">22-П/22.04
 </t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1702,7 +1783,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Договор работ</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1743,8 +1824,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t xml:space="preserve">21-КБ/19.03
-</t>
+          <t>1-\п</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1761,7 +1841,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">20500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -1786,73 +1866,72 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
 </t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
+          <t>2-\п</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">420500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -1860,78 +1939,77 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Договор аренды</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
 </t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
+          <t>3-\п</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">9920500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -1939,78 +2017,77 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Договор работ</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генеральный директор
+          <t xml:space="preserve">Директор
 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">С.С. Макарова
+          <t xml:space="preserve">Р.А. Шатов
 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
+          <t xml:space="preserve">Директора Шатова Романа Александровича
 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
 </t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
+          <t>4-\п</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
 </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
 </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">820500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Краснодар
+          <t xml:space="preserve">г. Симферополь
 </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
@@ -2023,72 +2100,73 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>1-\п</t>
+          <t xml:space="preserve">22-П/22.04
+</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">20500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -2101,72 +2179,72 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2-\п</t>
+          <t>22-П</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t xml:space="preserve">420500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">6500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -2179,72 +2257,70 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>3-\п</t>
-        </is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>23</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t xml:space="preserve">9920500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -2257,72 +2333,70 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>4-\п</t>
-        </is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>233</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t xml:space="preserve">820500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -2369,11 +2443,8 @@
 </t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
-        </is>
+      <c r="H16" t="n">
+        <v>2333</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -2389,7 +2460,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t xml:space="preserve">500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">1216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -2409,7 +2480,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2448,10 +2519,8 @@
 </t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>22-П</t>
-        </is>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -2467,7 +2536,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t xml:space="preserve">6500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -2487,7 +2556,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2527,7 +2596,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2543,7 +2612,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">96500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -2563,7 +2632,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2603,7 +2672,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -2619,7 +2688,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t xml:space="preserve">216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
+          <t xml:space="preserve">196500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
 </t>
         </is>
       </c>
@@ -2638,310 +2707,6 @@
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
-        <is>
-          <t>Договор поставки</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2333</v>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Договор аренды</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Договор аренды</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>12</v>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">96500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Договор аренды</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>123</v>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">196500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
         <is>
           <t>219861000.0</t>
         </is>

--- a/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
+++ b/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
@@ -1221,7 +1221,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
@@ -1314,73 +1314,72 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">21-КБ/19.03
+          <t xml:space="preserve">22-П/22.04
 </t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>57850500.00</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1393,73 +1392,72 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t xml:space="preserve">21-КБ/19.03
+          <t xml:space="preserve">22-П/22.04
 </t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>57850500.00</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1472,73 +1470,72 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
 </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">21-КБ/19.03
+          <t xml:space="preserve">22-П/22.04
 </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">11120500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>57850500.00</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1605,8 +1602,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>500.00</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1625,7 +1621,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Договор аренды</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1666,8 +1662,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
+          <t>22-П</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1684,8 +1679,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>6500.00</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1704,7 +1698,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Договор работ</t>
+          <t>Договор поставки</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1743,11 +1737,8 @@
 </t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
-        </is>
+      <c r="H7" t="n">
+        <v>23</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -1763,8 +1754,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t xml:space="preserve">57850500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1788,72 +1778,69 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>1-\п</t>
-        </is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>233</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t xml:space="preserve">20500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>216500.00</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1866,72 +1853,69 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2-\п</t>
-        </is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2333</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t xml:space="preserve">420500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>1216500.00</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -1939,77 +1923,74 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>3-\п</t>
-        </is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t xml:space="preserve">9920500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>16500.00</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -2017,77 +1998,74 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директор
+          <t xml:space="preserve">Генеральный директор
 </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Р.А. Шатов
+          <t xml:space="preserve">С.С. Макарова
 </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Директора Шатова Романа Александровича
+          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
 </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>4-\п</t>
-        </is>
+          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>12</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
 </t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
 </t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t xml:space="preserve">820500.00 (Одиннадцать миллионов сто двадцать тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>96500.00</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve">г. Симферополь
+          <t xml:space="preserve">г. Краснодар
 </t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t xml:space="preserve">19 марта 2024 г.
+          <t xml:space="preserve">22 апреля 2024 г.
 </t>
         </is>
       </c>
@@ -2095,7 +2073,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
+          <t>Договор аренды</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2134,11 +2112,8 @@
 </t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
-        </is>
+      <c r="H12" t="n">
+        <v>123</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -2154,8 +2129,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t xml:space="preserve">500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
+          <t>196500.50</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2174,541 +2148,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Договор поставки</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>22-П</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Договор поставки</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>23</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Договор поставки</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>233</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Договор поставки</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2333</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">1216500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Договор аренды</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">16500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Договор аренды</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>12</v>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">96500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Договор аренды</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>123</v>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">196500.00 (Пятьдесят семь миллионов восемьсот пятьдесят тысяч пятьсот ) рублей 00 копеек.
-</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>219861000.0</t>
+          <t>175317500.5</t>
         </is>
       </c>
     </row>

--- a/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
+++ b/DocxTemplate/XLSX_TO_PRINT/table1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28800" windowHeight="12180" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="29868" windowHeight="13440" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -373,12 +373,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -493,7 +508,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
@@ -505,34 +520,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
@@ -617,10 +632,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1221,937 +1242,662 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="11.5333333333333" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.537037037037" defaultRowHeight="13.2"/>
   <cols>
-    <col width="22.5714285714286" customWidth="1" style="1" min="1" max="3"/>
+    <col width="22.5740740740741" customWidth="1" style="1" min="1" max="3"/>
     <col width="16" customWidth="1" style="1" min="4" max="4"/>
-    <col width="16.8571428571429" customWidth="1" style="1" min="5" max="5"/>
-    <col width="22.5714285714286" customWidth="1" style="1" min="6" max="7"/>
-    <col width="17.1428571428571" customWidth="1" style="1" min="8" max="8"/>
-    <col width="22.5714285714286" customWidth="1" style="1" min="9" max="11"/>
-    <col width="16.7142857142857" customWidth="1" style="1" min="12" max="13"/>
-    <col width="22.5714285714286" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="16.8611111111111" customWidth="1" style="1" min="5" max="5"/>
+    <col width="22.5740740740741" customWidth="1" style="1" min="6" max="7"/>
+    <col width="17.1388888888889" customWidth="1" style="1" min="8" max="8"/>
+    <col width="22.5740740740741" customWidth="1" style="1" min="9" max="11"/>
+    <col width="16.712962962963" customWidth="1" style="1" min="12" max="13"/>
+    <col width="22.5740740740741" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="13.95" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Тип договора</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Поставщик</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Поставщик(полное)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Должность</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>ФИО</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>ФИО(полное)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Юридический адрес</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Номер договора</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Объект</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Объект(полное)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Сумма договора</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Город</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Дата</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="356.4" customHeight="1">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>Договор поставки</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>57850500.00</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директор
+</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Р.А. Шатов
+</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директора Шатова Романа Александровича
+</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21-КБ/19.03
+</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>11120500.00</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Симферополь
+</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="356.4" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>Договор аренды</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>57850500.00</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директор
+</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Р.А. Шатов
+</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директора Шатова Романа Александровича
+</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21-КБ/19.03
+</t>
+        </is>
+      </c>
+      <c r="I3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+</t>
+        </is>
+      </c>
+      <c r="J3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+</t>
+        </is>
+      </c>
+      <c r="K3" s="3" t="inlineStr">
+        <is>
+          <t>11120500.00</t>
+        </is>
+      </c>
+      <c r="L3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Симферополь
+</t>
+        </is>
+      </c>
+      <c r="M3" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="356.4" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>Договор работ</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>57850500.00</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директор
+</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Р.А. Шатов
+</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директора Шатова Романа Александровича
+</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">21-КБ/19.03
+</t>
+        </is>
+      </c>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+</t>
+        </is>
+      </c>
+      <c r="J4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+</t>
+        </is>
+      </c>
+      <c r="K4" s="3" t="inlineStr">
+        <is>
+          <t>11120500.00</t>
+        </is>
+      </c>
+      <c r="L4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Симферополь
+</t>
+        </is>
+      </c>
+      <c r="M4" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="198" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>Договор поставки</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22-П/22.04
-</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>500.00</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директор
+</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Р.А. Шатов
+</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директора Шатова Романа Александровича
+</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>1-\п</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>20500.00</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Симферополь
+</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="198" customHeight="1">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>Договор поставки</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>22-П</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>6500.00</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директор
+</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Р.А. Шатов
+</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директора Шатова Романа Александровича
+</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H6" s="3" t="inlineStr">
+        <is>
+          <t>2-\п</t>
+        </is>
+      </c>
+      <c r="I6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+</t>
+        </is>
+      </c>
+      <c r="J6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+</t>
+        </is>
+      </c>
+      <c r="K6" s="3" t="inlineStr">
+        <is>
+          <t>420500.00</t>
+        </is>
+      </c>
+      <c r="L6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Симферополь
+</t>
+        </is>
+      </c>
+      <c r="M6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="198" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>Договор поставки</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>23</v>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>16500.00</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директор
+</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Р.А. Шатов
+</t>
+        </is>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директора Шатова Романа Александровича
+</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="inlineStr">
+        <is>
+          <t>3-\п</t>
+        </is>
+      </c>
+      <c r="I7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+</t>
+        </is>
+      </c>
+      <c r="J7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+</t>
+        </is>
+      </c>
+      <c r="K7" s="3" t="inlineStr">
+        <is>
+          <t>9920500.00</t>
+        </is>
+      </c>
+      <c r="L7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Симферополь
+</t>
+        </is>
+      </c>
+      <c r="M7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="356.4" customHeight="1">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>Договор поставки</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>233</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>216500.00</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ООО «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «КРЫМ БЕТОН»
+</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директор
+</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Р.А. Шатов
+</t>
+        </is>
+      </c>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Директора Шатова Романа Александровича
+</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2Юридический адрес: 295051, Республика Крым, г. Симферополь, ул. Генерала Васильева, 30К литера I ИНН/КПП 9109019736/910201001 ОГРН 1179102005455 Р/с № 40702810840130020115 в РНКБ БАНК (ПАО) Корр.счет 30101810335100000607 БИК 043510607 Тел.: +79780604451 e-mail: crimbeton@mail.ru
+</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>4-\п</t>
+        </is>
+      </c>
+      <c r="I8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а»
+</t>
+        </is>
+      </c>
+      <c r="J8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">«Строительство блока начальных классов МБОУ школа-гимназия №20 имени Святителя Луки Крымского», расположенный по адресу: «Республика Крым, г. Симферополь, ул. Кечкеметская, 4а» ,в рамках муниципального контракта, заключенного между ООО «РЭКС» и Муниципальным казенным учреждением Департамента капитального строительства Администрации города Симферополь Республики Крым. Идентификационный код закупки: 23391020587049102010001000600014399414 ИГК 005305007322S9Z0007531047
+</t>
+        </is>
+      </c>
+      <c r="K8" s="3" t="inlineStr">
+        <is>
+          <t>820500.00</t>
+        </is>
+      </c>
+      <c r="L8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">г. Симферополь
+</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">19 марта 2024 г.
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Договор поставки</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2333</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>1216500.00</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
+    <row r="9" ht="356.4" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>44543500.0</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="3" t="n"/>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
+      <c r="H9" s="3" t="n"/>
+      <c r="I9" s="3" t="n"/>
+      <c r="J9" s="3" t="n"/>
+      <c r="K9" s="3" t="n"/>
+      <c r="L9" s="3" t="n"/>
+      <c r="M9" s="3" t="n"/>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Договор аренды</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>16500.00</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Договор аренды</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>12</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>96500.00</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Договор аренды</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ООО «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ОБЩЕСТВО С ОГРАНИЧЕННОЙ ОТВЕТСТВЕННОСТЬЮ «МОНОЛИТ СЕРВИС»
-</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генеральный директор
-</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">С.С. Макарова
-</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Генерального директора Макарова Софья Степановна
-</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Юридический адрес: 123876, Россия, г. Краснодар, ул. Белуги, 101, ИНН/КПП 8108018737/810707007 ОГРН 7779102008588 Р/с № 40702810840130077888 в УРАЛ БАНК (ПАО) Корр.счет 30101810335100077777 БИК 055510888 Тел.: +79881110001 e-mail: krasnodar@mail.ru
-</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>123</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8»
-</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">«Строительство бизнесс центра святого Павла им. Петрова», расположенный по адресу: «Россия, г. Краснодар, ул. Мечникова, 8» ,в рамках рукопожатия, заключенного между ООО «РЭКС» и Администрацией Краснодарского края
-</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>196500.50</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">г. Краснодар
-</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">22 апреля 2024 г.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>175317500.5</t>
-        </is>
-      </c>
-    </row>
+    <row r="10" ht="356.4" customHeight="1"/>
+    <row r="11" ht="356.4" customHeight="1"/>
+    <row r="12" ht="198" customHeight="1"/>
+    <row r="13" ht="198" customHeight="1"/>
+    <row r="14" ht="198" customHeight="1"/>
+    <row r="15" ht="198" customHeight="1"/>
+    <row r="16" ht="198" customHeight="1"/>
+    <row r="17" ht="198" customHeight="1"/>
+    <row r="18" ht="198" customHeight="1"/>
+    <row r="19" ht="198" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup orientation="portrait" paperSize="9" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
